--- a/外部設計/資料/円弧配列_不足文字.xlsx
+++ b/外部設計/資料/円弧配列_不足文字.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\外部設計\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート一覧" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="487">
   <si>
     <t>モールド番号</t>
     <rPh sb="4" eb="6">
@@ -813,10 +813,6 @@
   </si>
   <si>
     <t>サイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代替え文字で置換はできず</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2052,10 +2048,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KO0288A0B0～KO0288A0B9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KO0440A0AA～KO0440A0AZ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2123,6 +2115,48 @@
   </si>
   <si>
     <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーは出るものの置換処理はOK</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替え文字で置換はできず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KO0288A0B0～KO0288A0B9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+代替え文字で置換はできずCAD側のエラーが発生する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2252,7 +2286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2340,17 +2374,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2360,6 +2391,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2545,6 +2585,182 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>780708</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>180800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16973550" y="54844950"/>
+          <a:ext cx="2733333" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1009352</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>209375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17554575" y="57254775"/>
+          <a:ext cx="2380952" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16154400" y="55445025"/>
+          <a:ext cx="742950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3114675</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16297275" y="56835675"/>
+          <a:ext cx="1200150" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2815,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R220"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D201" workbookViewId="0">
+      <selection activeCell="M214" sqref="M214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2860,7 +3076,7 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
@@ -2924,13 +3140,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>4</v>
@@ -2958,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>4</v>
@@ -2967,7 +3183,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="O9" s="29"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="30"/>
@@ -2978,7 +3194,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -2990,12 +3206,12 @@
         <v>4</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="29"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B11" s="30"/>
@@ -3004,13 +3220,13 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>4</v>
@@ -3021,7 +3237,7 @@
       <c r="J11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="29"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="30"/>
@@ -3040,10 +3256,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="30"/>
@@ -3069,7 +3285,7 @@
         <v>26</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="30"/>
@@ -3087,23 +3303,23 @@
         <v>5</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="O15" s="29"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="O16" s="29"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O17" s="29"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O18" s="29"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I19" s="15"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
@@ -3133,7 +3349,7 @@
       <c r="J20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O20" s="29"/>
+      <c r="O20" s="31"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="11"/>
@@ -3159,9 +3375,9 @@
         <v>40</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O21" s="29"/>
+        <v>484</v>
+      </c>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="11"/>
@@ -3176,12 +3392,12 @@
         <v>171</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="O22" s="29"/>
+        <v>174</v>
+      </c>
+      <c r="O22" s="31"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="11"/>
@@ -3205,7 +3421,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="O23" s="29"/>
+      <c r="O23" s="31"/>
     </row>
     <row r="24" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B24" s="11"/>
@@ -3217,13 +3433,13 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>320</v>
-      </c>
       <c r="J24" s="11"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="31"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="11"/>
@@ -3232,13 +3448,13 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>4</v>
@@ -3247,7 +3463,7 @@
         <v>46</v>
       </c>
       <c r="J25" s="11"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="31"/>
     </row>
     <row r="26" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B26" s="11"/>
@@ -3259,13 +3475,13 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="11"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="31"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="11"/>
@@ -3276,7 +3492,7 @@
         <v>37</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>2</v>
@@ -3302,10 +3518,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="J28" s="11"/>
     </row>
@@ -3316,13 +3532,13 @@
         <v>37</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>4</v>
@@ -3331,7 +3547,7 @@
         <v>52</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3344,13 +3560,13 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>303</v>
-      </c>
       <c r="J30" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
@@ -3360,19 +3576,19 @@
         <v>37</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="J31" s="11"/>
     </row>
@@ -3389,10 +3605,10 @@
         <v>170</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
@@ -3431,7 +3647,7 @@
         <v>170</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J34" s="11"/>
     </row>
@@ -3471,7 +3687,7 @@
         <v>170</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J36" s="11"/>
     </row>
@@ -3482,7 +3698,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>61</v>
@@ -3511,7 +3727,7 @@
         <v>149</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J38" s="11"/>
     </row>
@@ -3528,13 +3744,13 @@
         <v>61</v>
       </c>
       <c r="G39" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="J39" s="11"/>
     </row>
@@ -3548,10 +3764,10 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J40" s="11"/>
     </row>
@@ -3562,7 +3778,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>61</v>
@@ -3588,7 +3804,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>71</v>
@@ -3602,7 +3818,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>61</v>
@@ -3631,7 +3847,7 @@
         <v>149</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J44" s="11"/>
     </row>
@@ -3642,13 +3858,13 @@
         <v>37</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>4</v>
@@ -3722,7 +3938,7 @@
         <v>37</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>2</v>
@@ -3765,10 +3981,10 @@
         <v>94</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>4</v>
@@ -3791,7 +4007,7 @@
         <v>96</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J52" s="11"/>
     </row>
@@ -4008,13 +4224,13 @@
         <v>2</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>359</v>
       </c>
       <c r="J63" s="11"/>
     </row>
@@ -4042,7 +4258,7 @@
         <v>37</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>125</v>
@@ -4322,7 +4538,7 @@
         <v>37</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>2</v>
@@ -4402,13 +4618,13 @@
         <v>37</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>4</v>
@@ -4438,7 +4654,7 @@
     <row r="85" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B85" s="11"/>
       <c r="C85" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>16</v>
@@ -4516,10 +4732,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I88" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="J88" s="11"/>
     </row>
@@ -4556,10 +4772,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="J90" s="11"/>
     </row>
@@ -4596,10 +4812,10 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J92" s="11"/>
     </row>
@@ -4893,10 +5109,10 @@
         <v>94</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G107" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>4</v>
@@ -4970,7 +5186,7 @@
         <v>16</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>109</v>
@@ -5446,7 +5662,7 @@
     <row r="135" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B135" s="11"/>
       <c r="C135" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>16</v>
@@ -5481,7 +5697,7 @@
         <v>111</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J136" s="11"/>
     </row>
@@ -5521,7 +5737,7 @@
         <v>111</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J138" s="11"/>
     </row>
@@ -5558,10 +5774,10 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I140" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="I140" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="J140" s="11"/>
     </row>
@@ -5598,10 +5814,10 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I142" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="J142" s="11"/>
     </row>
@@ -5638,10 +5854,10 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J144" s="11"/>
     </row>
@@ -5775,10 +5991,10 @@
         <v>94</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G151" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>4</v>
@@ -5888,7 +6104,7 @@
     <row r="157" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B157" s="11"/>
       <c r="C157" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>16</v>
@@ -5966,10 +6182,10 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J160" s="11"/>
     </row>
@@ -6006,10 +6222,10 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I162" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="I162" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="J162" s="11"/>
     </row>
@@ -6046,10 +6262,10 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J164" s="11"/>
     </row>
@@ -6183,10 +6399,10 @@
         <v>94</v>
       </c>
       <c r="F171" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G171" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="G171" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>4</v>
@@ -6376,7 +6592,7 @@
     <row r="181" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B181" s="11"/>
       <c r="C181" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>16</v>
@@ -6408,10 +6624,10 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I182" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="I182" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="J182" s="11"/>
     </row>
@@ -6448,10 +6664,10 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J184" s="11"/>
     </row>
@@ -6488,10 +6704,10 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I186" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J186" s="11"/>
     </row>
@@ -6528,10 +6744,10 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J188" s="11"/>
     </row>
@@ -6568,10 +6784,10 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J190" s="11"/>
     </row>
@@ -6705,10 +6921,10 @@
         <v>94</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G197" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="G197" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>4</v>
@@ -6818,7 +7034,7 @@
     <row r="203" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B203" s="11"/>
       <c r="C203" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>16</v>
@@ -6850,16 +7066,16 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I204" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="I204" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="J204" s="7"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B207" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>17</v>
@@ -6889,222 +7105,246 @@
     <row r="208" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B208" s="11"/>
       <c r="C208" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D208" s="2"/>
-      <c r="E208" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F208" s="1" t="s">
+      <c r="G208" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G208" s="10" t="s">
+      <c r="H208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I208" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I208" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="J208" s="1"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B209" s="11"/>
       <c r="C209" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D209" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="E209" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I209" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I209" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J209" s="1"/>
+      <c r="J209" s="1" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B210" s="11"/>
       <c r="C210" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D210" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>480</v>
+      </c>
       <c r="E210" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I210" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I210" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="J210" s="1"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B211" s="11"/>
       <c r="C211" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D211" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>480</v>
+      </c>
       <c r="E211" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I211" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J211" s="1"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B212" s="11"/>
       <c r="C212" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D212" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="E212" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F212" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G212" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G212" s="10" t="s">
+      <c r="H212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I212" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I212" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J212" s="1"/>
+      <c r="J212" s="37" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="E213" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G213" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I213" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I213" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="J213" s="1"/>
+      <c r="J213" s="33"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="29" t="s">
+        <v>483</v>
+      </c>
       <c r="E214" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G214" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I214" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I214" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J214" s="1"/>
+      <c r="J214" s="33"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="29" t="s">
+        <v>483</v>
+      </c>
       <c r="E215" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="J215" s="1"/>
+        <v>485</v>
+      </c>
+      <c r="J215" s="33"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="29" t="s">
+        <v>483</v>
+      </c>
       <c r="E216" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J216" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="J216" s="33"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="29" t="s">
+        <v>483</v>
+      </c>
       <c r="E217" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I217" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="J217" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="J217" s="34"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B218" s="16"/>
@@ -7119,45 +7359,46 @@
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B220" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="J212:J217"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O17:O18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7170,7 +7411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
@@ -7187,59 +7428,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>246</v>
-      </c>
       <c r="F3" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>258</v>
+      <c r="C4" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>257</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="2">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" s="33" t="str">
+        <v>258</v>
+      </c>
+      <c r="H4" s="32" t="str">
         <f>"GM-"&amp;D4&amp;".MDL"</f>
         <v>GM-KO0288.MDL</v>
       </c>
@@ -7248,39 +7489,39 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H5" s="35"/>
+        <v>263</v>
+      </c>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>250</v>
+      <c r="C6" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="2">
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H6" s="33" t="str">
+        <v>251</v>
+      </c>
+      <c r="H6" s="32" t="str">
         <f>"GM-"&amp;D6&amp;".MDL"</f>
         <v>GM-KO0289.MDL</v>
       </c>
@@ -7289,56 +7530,56 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H7" s="34"/>
+        <v>310</v>
+      </c>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" s="35"/>
+        <v>311</v>
+      </c>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>275</v>
+      <c r="C9" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>274</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="2">
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" s="33" t="str">
+        <v>275</v>
+      </c>
+      <c r="H9" s="32" t="str">
         <f>"GM-"&amp;D9&amp;".MDL"</f>
         <v>GM-KO0290.MDL</v>
       </c>
@@ -7347,57 +7588,57 @@
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="34"/>
+        <v>297</v>
+      </c>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11" s="2">
         <v>3</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H11" s="35"/>
+        <v>298</v>
+      </c>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>262</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" s="2">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="33" t="str">
-        <f t="shared" ref="H12:H23" si="0">"GM-"&amp;D12&amp;".MDL"</f>
+        <v>264</v>
+      </c>
+      <c r="H12" s="32" t="str">
+        <f t="shared" ref="H12" si="0">"GM-"&amp;D12&amp;".MDL"</f>
         <v>GM-KO0306.MDL</v>
       </c>
     </row>
@@ -7405,57 +7646,57 @@
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H13" s="34"/>
+        <v>307</v>
+      </c>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="H14" s="35"/>
+        <v>308</v>
+      </c>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>288</v>
+      <c r="C15" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>287</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F15" s="2">
         <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H15" s="33" t="str">
-        <f t="shared" ref="H15:H23" si="1">"GM-"&amp;D15&amp;".MDL"</f>
+        <v>288</v>
+      </c>
+      <c r="H15" s="32" t="str">
+        <f t="shared" ref="H15" si="1">"GM-"&amp;D15&amp;".MDL"</f>
         <v>GM-KO0291.MDL</v>
       </c>
     </row>
@@ -7463,57 +7704,57 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" s="2">
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="34"/>
+        <v>289</v>
+      </c>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F17" s="2">
         <v>4</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="H17" s="35"/>
+        <v>306</v>
+      </c>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>292</v>
+      <c r="C18" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>291</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" s="2">
         <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H18" s="33" t="str">
-        <f t="shared" ref="H18:H23" si="2">"GM-"&amp;D18&amp;".MDL"</f>
+        <v>303</v>
+      </c>
+      <c r="H18" s="32" t="str">
+        <f t="shared" ref="H18" si="2">"GM-"&amp;D18&amp;".MDL"</f>
         <v>GM-KO1005.MDL</v>
       </c>
     </row>
@@ -7521,57 +7762,57 @@
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" s="34"/>
+        <v>292</v>
+      </c>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" s="2">
         <v>4</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" s="35"/>
+        <v>304</v>
+      </c>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>279</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F21" s="2">
         <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H21" s="33" t="str">
-        <f t="shared" ref="H21:H23" si="3">"GM-"&amp;D21&amp;".MDL"</f>
+        <v>279</v>
+      </c>
+      <c r="H21" s="32" t="str">
+        <f t="shared" ref="H21" si="3">"GM-"&amp;D21&amp;".MDL"</f>
         <v>GM-KO0292.MDL</v>
       </c>
     </row>
@@ -7579,56 +7820,56 @@
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F22" s="2">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H22" s="34"/>
+        <v>280</v>
+      </c>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F23" s="2">
         <v>4</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="H23" s="35"/>
+        <v>461</v>
+      </c>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="H24" s="33" t="str">
+        <v>462</v>
+      </c>
+      <c r="H24" s="32" t="str">
         <f>"GM-"&amp;D24&amp;".MDL"</f>
         <v>GM-KO0323.MDL</v>
       </c>
@@ -7637,8 +7878,8 @@
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
@@ -7646,30 +7887,30 @@
         <v>10</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="H25" s="35"/>
+        <v>463</v>
+      </c>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>269</v>
+      <c r="C26" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>268</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="2">
         <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H26" s="33" t="str">
+        <v>269</v>
+      </c>
+      <c r="H26" s="32" t="str">
         <f t="shared" ref="H26:H89" si="4">"GM-"&amp;D26&amp;".MDL"</f>
         <v>GM-KO0473.MDL</v>
       </c>
@@ -7678,56 +7919,56 @@
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F27" s="2">
         <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H27" s="34"/>
+        <v>320</v>
+      </c>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="H28" s="35"/>
+        <v>321</v>
+      </c>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="F29" s="2">
         <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H29" s="33" t="str">
+        <v>322</v>
+      </c>
+      <c r="H29" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0615.MDL</v>
       </c>
@@ -7736,56 +7977,56 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F30" s="2">
         <v>10</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H30" s="34"/>
+        <v>323</v>
+      </c>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H31" s="35"/>
+        <v>331</v>
+      </c>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>331</v>
+      <c r="C32" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>330</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F32" s="2">
         <v>24</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H32" s="33" t="str">
+        <v>332</v>
+      </c>
+      <c r="H32" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0472.MDL</v>
       </c>
@@ -7794,56 +8035,56 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F33" s="2">
         <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" s="34"/>
+        <v>333</v>
+      </c>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H34" s="35"/>
+        <v>339</v>
+      </c>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="D35" s="31" t="s">
-        <v>337</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F35" s="2">
         <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H35" s="33" t="str">
+        <v>340</v>
+      </c>
+      <c r="H35" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0472.MDL</v>
       </c>
@@ -7852,56 +8093,56 @@
       <c r="B36" s="2">
         <v>33</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F36" s="2">
         <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H36" s="34"/>
+        <v>341</v>
+      </c>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H37" s="35"/>
+        <v>345</v>
+      </c>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="2">
         <v>35</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>349</v>
+      <c r="C38" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>348</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F38" s="2">
         <v>24</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H38" s="33" t="str">
+        <v>347</v>
+      </c>
+      <c r="H38" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0540.MDL</v>
       </c>
@@ -7910,56 +8151,56 @@
       <c r="B39" s="2">
         <v>36</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F39" s="2">
         <v>10</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H39" s="34"/>
+        <v>346</v>
+      </c>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="2">
         <v>37</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F40" s="2">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H40" s="35"/>
+        <v>353</v>
+      </c>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="2">
         <v>38</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="F41" s="2">
         <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H41" s="33" t="str">
+        <v>354</v>
+      </c>
+      <c r="H41" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0508.MDL</v>
       </c>
@@ -7968,56 +8209,56 @@
       <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="2">
         <v>10</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H42" s="34"/>
+        <v>355</v>
+      </c>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H43" s="35"/>
+        <v>360</v>
+      </c>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>360</v>
+      <c r="C44" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>359</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F44" s="2">
         <v>26</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H44" s="33" t="str">
+        <v>361</v>
+      </c>
+      <c r="H44" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO1007.MDL</v>
       </c>
@@ -8026,25 +8267,25 @@
       <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F45" s="2">
         <v>10</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H45" s="34"/>
+        <v>362</v>
+      </c>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="12" t="s">
         <v>120</v>
       </c>
@@ -8052,30 +8293,30 @@
         <v>3</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="H46" s="35"/>
+        <v>365</v>
+      </c>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="D47" s="31" t="s">
-        <v>365</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F47" s="2">
         <v>9</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H47" s="33" t="str">
+        <v>366</v>
+      </c>
+      <c r="H47" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0503.MDL</v>
       </c>
@@ -8084,56 +8325,56 @@
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F48" s="2">
         <v>10</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H48" s="34"/>
+        <v>367</v>
+      </c>
+      <c r="H48" s="33"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H49" s="35"/>
+        <v>373</v>
+      </c>
+      <c r="H49" s="34"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>371</v>
+      <c r="C50" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>370</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50" s="2">
         <v>26</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H50" s="33" t="str">
+        <v>374</v>
+      </c>
+      <c r="H50" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO1019.MDL</v>
       </c>
@@ -8142,56 +8383,56 @@
       <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F51" s="2">
         <v>10</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H51" s="34"/>
+        <v>375</v>
+      </c>
+      <c r="H51" s="33"/>
     </row>
     <row r="52" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F52" s="2">
         <v>4</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="H52" s="35"/>
+        <v>376</v>
+      </c>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="D53" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="D53" s="31" t="s">
-        <v>373</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F53" s="2">
         <v>26</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H53" s="33" t="str">
+        <v>377</v>
+      </c>
+      <c r="H53" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO1018.MDL</v>
       </c>
@@ -8200,56 +8441,56 @@
       <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F54" s="2">
         <v>10</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H54" s="34"/>
+        <v>378</v>
+      </c>
+      <c r="H54" s="33"/>
     </row>
     <row r="55" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B55" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F55" s="2">
         <v>4</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="H55" s="35"/>
+        <v>384</v>
+      </c>
+      <c r="H55" s="34"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>384</v>
+      <c r="C56" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>383</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F56" s="2">
         <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H56" s="33" t="str">
+        <v>385</v>
+      </c>
+      <c r="H56" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0494.MDL</v>
       </c>
@@ -8258,45 +8499,45 @@
       <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F57" s="2">
         <v>10</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H57" s="34"/>
+        <v>386</v>
+      </c>
+      <c r="H57" s="33"/>
     </row>
     <row r="58" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B58" s="2">
         <v>55</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F58" s="2">
         <v>3</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="H58" s="35"/>
+        <v>392</v>
+      </c>
+      <c r="H58" s="34"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="2">
         <v>56</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>391</v>
+      <c r="C59" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>390</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>143</v>
@@ -8305,9 +8546,9 @@
         <v>26</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="H59" s="33" t="str">
+        <v>396</v>
+      </c>
+      <c r="H59" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0656.MDL</v>
       </c>
@@ -8316,8 +8557,8 @@
       <c r="B60" s="2">
         <v>57</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
       <c r="E60" s="1" t="s">
         <v>4</v>
       </c>
@@ -8325,36 +8566,36 @@
         <v>10</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H60" s="34"/>
+        <v>393</v>
+      </c>
+      <c r="H60" s="33"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="2">
         <v>58</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F61" s="2">
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H61" s="35"/>
+        <v>394</v>
+      </c>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="2">
         <v>59</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>400</v>
+      <c r="C62" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>143</v>
@@ -8363,9 +8604,9 @@
         <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H62" s="33" t="str">
+        <v>398</v>
+      </c>
+      <c r="H62" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0652.MDL</v>
       </c>
@@ -8374,8 +8615,8 @@
       <c r="B63" s="2">
         <v>60</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
       <c r="E63" s="1" t="s">
         <v>4</v>
       </c>
@@ -8383,36 +8624,36 @@
         <v>10</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H63" s="34"/>
+        <v>397</v>
+      </c>
+      <c r="H63" s="33"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B64" s="2">
         <v>61</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F64" s="2">
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H64" s="35"/>
+        <v>403</v>
+      </c>
+      <c r="H64" s="34"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="2">
         <v>62</v>
       </c>
-      <c r="C65" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>403</v>
+      <c r="C65" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>402</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>143</v>
@@ -8421,9 +8662,9 @@
         <v>26</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H65" s="33" t="str">
+        <v>404</v>
+      </c>
+      <c r="H65" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0734.MDL</v>
       </c>
@@ -8432,8 +8673,8 @@
       <c r="B66" s="2">
         <v>63</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="1" t="s">
         <v>4</v>
       </c>
@@ -8441,47 +8682,47 @@
         <v>10</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H66" s="34"/>
+        <v>405</v>
+      </c>
+      <c r="H66" s="33"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="2">
         <v>64</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F67" s="2">
         <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H67" s="35"/>
+        <v>411</v>
+      </c>
+      <c r="H67" s="34"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="2">
         <v>65</v>
       </c>
-      <c r="C68" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>411</v>
+      <c r="C68" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>410</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F68" s="2">
         <v>19</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H68" s="33" t="str">
+        <v>412</v>
+      </c>
+      <c r="H68" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0507.MDL</v>
       </c>
@@ -8490,8 +8731,8 @@
       <c r="B69" s="2">
         <v>66</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="1" t="s">
         <v>4</v>
       </c>
@@ -8499,47 +8740,47 @@
         <v>10</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H69" s="34"/>
+        <v>413</v>
+      </c>
+      <c r="H69" s="33"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="2">
         <v>67</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H70" s="35"/>
+        <v>415</v>
+      </c>
+      <c r="H70" s="34"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="2">
         <v>68</v>
       </c>
-      <c r="C71" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>415</v>
+      <c r="C71" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>414</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F71" s="2">
         <v>19</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H71" s="33" t="str">
+        <v>416</v>
+      </c>
+      <c r="H71" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0502.MDL</v>
       </c>
@@ -8548,8 +8789,8 @@
       <c r="B72" s="2">
         <v>69</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="1" t="s">
         <v>4</v>
       </c>
@@ -8557,36 +8798,36 @@
         <v>10</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H72" s="34"/>
+        <v>417</v>
+      </c>
+      <c r="H72" s="33"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B73" s="2">
         <v>70</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H73" s="35"/>
+        <v>422</v>
+      </c>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="2">
         <v>71</v>
       </c>
-      <c r="C74" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>422</v>
+      <c r="C74" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>421</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>109</v>
@@ -8595,9 +8836,9 @@
         <v>9</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H74" s="33" t="str">
+        <v>423</v>
+      </c>
+      <c r="H74" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0561.MDL</v>
       </c>
@@ -8606,8 +8847,8 @@
       <c r="B75" s="2">
         <v>72</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="1" t="s">
         <v>4</v>
       </c>
@@ -8615,36 +8856,36 @@
         <v>10</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H75" s="34"/>
+        <v>424</v>
+      </c>
+      <c r="H75" s="33"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="2">
         <v>73</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H76" s="35"/>
+        <v>430</v>
+      </c>
+      <c r="H76" s="34"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="2">
         <v>74</v>
       </c>
-      <c r="C77" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>426</v>
+      <c r="C77" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>425</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>109</v>
@@ -8653,9 +8894,9 @@
         <v>9</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H77" s="33" t="str">
+        <v>431</v>
+      </c>
+      <c r="H77" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0438.MDL</v>
       </c>
@@ -8664,8 +8905,8 @@
       <c r="B78" s="2">
         <v>75</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="1" t="s">
         <v>4</v>
       </c>
@@ -8673,36 +8914,36 @@
         <v>10</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H78" s="34"/>
+        <v>432</v>
+      </c>
+      <c r="H78" s="33"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B79" s="2">
         <v>76</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H79" s="35"/>
+        <v>433</v>
+      </c>
+      <c r="H79" s="34"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B80" s="2">
         <v>77</v>
       </c>
-      <c r="C80" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>430</v>
+      <c r="C80" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>429</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>143</v>
@@ -8711,9 +8952,9 @@
         <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H80" s="33" t="str">
+        <v>437</v>
+      </c>
+      <c r="H80" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0381.MDL</v>
       </c>
@@ -8722,8 +8963,8 @@
       <c r="B81" s="2">
         <v>78</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="1" t="s">
         <v>4</v>
       </c>
@@ -8731,36 +8972,36 @@
         <v>10</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H81" s="34"/>
+        <v>434</v>
+      </c>
+      <c r="H81" s="33"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B82" s="2">
         <v>79</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F82" s="2">
         <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H82" s="35"/>
+        <v>435</v>
+      </c>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B83" s="2">
         <v>80</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>437</v>
+      <c r="C83" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>436</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>143</v>
@@ -8769,9 +9010,9 @@
         <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H83" s="33" t="str">
+        <v>438</v>
+      </c>
+      <c r="H83" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0379.MDL</v>
       </c>
@@ -8780,8 +9021,8 @@
       <c r="B84" s="2">
         <v>81</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="1" t="s">
         <v>4</v>
       </c>
@@ -8789,36 +9030,36 @@
         <v>10</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H84" s="34"/>
+        <v>439</v>
+      </c>
+      <c r="H84" s="33"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B85" s="2">
         <v>82</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F85" s="2">
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H85" s="35"/>
+        <v>443</v>
+      </c>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B86" s="2">
         <v>83</v>
       </c>
-      <c r="C86" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>443</v>
+      <c r="C86" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>442</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>143</v>
@@ -8827,9 +9068,9 @@
         <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H86" s="33" t="str">
+        <v>444</v>
+      </c>
+      <c r="H86" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0384.MDL</v>
       </c>
@@ -8838,8 +9079,8 @@
       <c r="B87" s="2">
         <v>84</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="1" t="s">
         <v>4</v>
       </c>
@@ -8847,47 +9088,47 @@
         <v>10</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H87" s="34"/>
+        <v>445</v>
+      </c>
+      <c r="H87" s="33"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B88" s="2">
         <v>85</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F88" s="2">
         <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H88" s="35"/>
+        <v>446</v>
+      </c>
+      <c r="H88" s="34"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B89" s="2">
         <v>86</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F89" s="2">
         <v>26</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H89" s="33" t="str">
+        <v>451</v>
+      </c>
+      <c r="H89" s="32" t="str">
         <f t="shared" si="4"/>
         <v>GM-KO0665.MDL</v>
       </c>
@@ -8896,57 +9137,57 @@
       <c r="B90" s="2">
         <v>87</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F90" s="2">
         <v>10</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="H90" s="34"/>
+        <v>452</v>
+      </c>
+      <c r="H90" s="33"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B91" s="2">
         <v>88</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F91" s="2">
         <v>2</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H91" s="35"/>
+        <v>453</v>
+      </c>
+      <c r="H91" s="34"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B92" s="2">
         <v>89</v>
       </c>
-      <c r="C92" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>458</v>
+      <c r="C92" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>457</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F92" s="2">
         <v>19</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H92" s="33" t="str">
-        <f t="shared" ref="H92:H94" si="5">"GM-"&amp;D92&amp;".MDL"</f>
+        <v>458</v>
+      </c>
+      <c r="H92" s="32" t="str">
+        <f t="shared" ref="H92" si="5">"GM-"&amp;D92&amp;".MDL"</f>
         <v>GM-KO0858.MDL</v>
       </c>
     </row>
@@ -8954,8 +9195,8 @@
       <c r="B93" s="2">
         <v>90</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="1" t="s">
         <v>4</v>
       </c>
@@ -8963,47 +9204,47 @@
         <v>10</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H93" s="34"/>
+        <v>469</v>
+      </c>
+      <c r="H93" s="33"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B94" s="2">
         <v>91</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H94" s="35"/>
+        <v>465</v>
+      </c>
+      <c r="H94" s="34"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B95" s="2">
         <v>92</v>
       </c>
-      <c r="C95" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>469</v>
+      <c r="C95" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>467</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F95" s="2">
         <v>7</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H95" s="33" t="str">
+        <v>470</v>
+      </c>
+      <c r="H95" s="32" t="str">
         <f>"GM-"&amp;D95&amp;".MDL"</f>
         <v>GM-KO0440.MDL</v>
       </c>
@@ -9012,8 +9253,8 @@
       <c r="B96" s="2">
         <v>93</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="1" t="s">
         <v>4</v>
       </c>
@@ -9021,35 +9262,123 @@
         <v>10</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H96" s="35"/>
+        <v>471</v>
+      </c>
+      <c r="H96" s="34"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="25">
         <v>94</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="D68:D70"/>
     <mergeCell ref="H86:H88"/>
     <mergeCell ref="H89:H91"/>
     <mergeCell ref="H92:H94"/>
@@ -9059,94 +9388,6 @@
     <mergeCell ref="H77:H79"/>
     <mergeCell ref="H80:H82"/>
     <mergeCell ref="H83:H85"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
